--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.0655828026778615</v>
+        <v>0.126926</v>
       </c>
       <c r="H2">
-        <v>0.0655828026778615</v>
+        <v>0.380778</v>
       </c>
       <c r="I2">
-        <v>0.0816937661385551</v>
+        <v>0.09915490815857943</v>
       </c>
       <c r="J2">
-        <v>0.0816937661385551</v>
+        <v>0.124314443606855</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.723301091181259</v>
+        <v>0.002858666666666667</v>
       </c>
       <c r="N2">
-        <v>0.723301091181259</v>
+        <v>0.008576</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002734612344944435</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.004026383705540645</v>
       </c>
       <c r="Q2">
-        <v>0.04743611273962241</v>
+        <v>0.0003628391253333334</v>
       </c>
       <c r="R2">
-        <v>0.04743611273962241</v>
+        <v>0.003265552128</v>
       </c>
       <c r="S2">
-        <v>0.0816937661385551</v>
+        <v>0.000271150235912283</v>
       </c>
       <c r="T2">
-        <v>0.0816937661385551</v>
+        <v>0.0005005376501019925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.737205534520733</v>
+        <v>0.126926</v>
       </c>
       <c r="H3">
-        <v>0.737205534520733</v>
+        <v>0.380778</v>
       </c>
       <c r="I3">
-        <v>0.9183062338614448</v>
+        <v>0.09915490815857943</v>
       </c>
       <c r="J3">
-        <v>0.9183062338614448</v>
+        <v>0.124314443606855</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.723301091181259</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N3">
-        <v>0.723301091181259</v>
+        <v>0.098942</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03154944200483818</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.04645271182294804</v>
       </c>
       <c r="Q3">
-        <v>0.5332215675437094</v>
+        <v>0.004186104097333334</v>
       </c>
       <c r="R3">
-        <v>0.5332215675437094</v>
+        <v>0.037674936876</v>
       </c>
       <c r="S3">
-        <v>0.9183062338614448</v>
+        <v>0.003128282024444158</v>
       </c>
       <c r="T3">
-        <v>0.9183062338614448</v>
+        <v>0.005774743024299363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.126926</v>
+      </c>
+      <c r="H4">
+        <v>0.380778</v>
+      </c>
+      <c r="I4">
+        <v>0.09915490815857943</v>
+      </c>
+      <c r="J4">
+        <v>0.124314443606855</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.010148</v>
+      </c>
+      <c r="O4">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P4">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q4">
+        <v>0.0004293483493333334</v>
+      </c>
+      <c r="R4">
+        <v>0.003864135144</v>
+      </c>
+      <c r="S4">
+        <v>0.0003208526812077714</v>
+      </c>
+      <c r="T4">
+        <v>0.0005922873219723671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.126926</v>
+      </c>
+      <c r="H5">
+        <v>0.380778</v>
+      </c>
+      <c r="I5">
+        <v>0.09915490815857943</v>
+      </c>
+      <c r="J5">
+        <v>0.124314443606855</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.0061425</v>
+      </c>
+      <c r="N5">
+        <v>2.012285</v>
+      </c>
+      <c r="O5">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P5">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q5">
+        <v>0.127705642955</v>
+      </c>
+      <c r="R5">
+        <v>0.76623385773</v>
+      </c>
+      <c r="S5">
+        <v>0.09543462321701521</v>
+      </c>
+      <c r="T5">
+        <v>0.1174468756104813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2188896666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.6566689999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.1709971542095031</v>
+      </c>
+      <c r="J6">
+        <v>0.2143859187475902</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.008576</v>
+      </c>
+      <c r="O6">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P6">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q6">
+        <v>0.0006257325937777778</v>
+      </c>
+      <c r="R6">
+        <v>0.005631593343999999</v>
+      </c>
+      <c r="S6">
+        <v>0.0004676109288516745</v>
+      </c>
+      <c r="T6">
+        <v>0.0008631999699426577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2188896666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.6566689999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.1709971542095031</v>
+      </c>
+      <c r="J7">
+        <v>0.2143859187475902</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.098942</v>
+      </c>
+      <c r="O7">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P7">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q7">
+        <v>0.00721912713311111</v>
+      </c>
+      <c r="R7">
+        <v>0.064972144198</v>
+      </c>
+      <c r="S7">
+        <v>0.00539486479972509</v>
+      </c>
+      <c r="T7">
+        <v>0.00995880730247976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2188896666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.6566689999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1709971542095031</v>
+      </c>
+      <c r="J8">
+        <v>0.2143859187475902</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.010148</v>
+      </c>
+      <c r="O8">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P8">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q8">
+        <v>0.0007404307791111112</v>
+      </c>
+      <c r="R8">
+        <v>0.006663877012</v>
+      </c>
+      <c r="S8">
+        <v>0.0005533250590003257</v>
+      </c>
+      <c r="T8">
+        <v>0.001021426456970393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2188896666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.6566689999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1709971542095031</v>
+      </c>
+      <c r="J9">
+        <v>0.2143859187475902</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.0061425</v>
+      </c>
+      <c r="N9">
+        <v>2.012285</v>
+      </c>
+      <c r="O9">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P9">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q9">
+        <v>0.2202341964441666</v>
+      </c>
+      <c r="R9">
+        <v>1.321405178665</v>
+      </c>
+      <c r="S9">
+        <v>0.164581353421926</v>
+      </c>
+      <c r="T9">
+        <v>0.2025424850181974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.106095</v>
+      </c>
+      <c r="H10">
+        <v>0.318285</v>
+      </c>
+      <c r="I10">
+        <v>0.08288167893957489</v>
+      </c>
+      <c r="J10">
+        <v>0.1039120502849636</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.008576</v>
+      </c>
+      <c r="O10">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P10">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q10">
+        <v>0.00030329024</v>
+      </c>
+      <c r="R10">
+        <v>0.00272961216</v>
+      </c>
+      <c r="S10">
+        <v>0.0002266492623978827</v>
+      </c>
+      <c r="T10">
+        <v>0.0004183897860766974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.106095</v>
+      </c>
+      <c r="H11">
+        <v>0.318285</v>
+      </c>
+      <c r="I11">
+        <v>0.08288167893957489</v>
+      </c>
+      <c r="J11">
+        <v>0.1039120502849636</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.098942</v>
+      </c>
+      <c r="O11">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P11">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q11">
+        <v>0.00349908383</v>
+      </c>
+      <c r="R11">
+        <v>0.03149175447</v>
+      </c>
+      <c r="S11">
+        <v>0.002614870722967736</v>
+      </c>
+      <c r="T11">
+        <v>0.004826996526819099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.106095</v>
+      </c>
+      <c r="H12">
+        <v>0.318285</v>
+      </c>
+      <c r="I12">
+        <v>0.08288167893957489</v>
+      </c>
+      <c r="J12">
+        <v>0.1039120502849636</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.010148</v>
+      </c>
+      <c r="O12">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P12">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q12">
+        <v>0.00035888402</v>
+      </c>
+      <c r="R12">
+        <v>0.00322995618</v>
+      </c>
+      <c r="S12">
+        <v>0.0002681945796191364</v>
+      </c>
+      <c r="T12">
+        <v>0.0004950815705581069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.106095</v>
+      </c>
+      <c r="H13">
+        <v>0.318285</v>
+      </c>
+      <c r="I13">
+        <v>0.08288167893957489</v>
+      </c>
+      <c r="J13">
+        <v>0.1039120502849636</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.0061425</v>
+      </c>
+      <c r="N13">
+        <v>2.012285</v>
+      </c>
+      <c r="O13">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P13">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q13">
+        <v>0.1067466885375</v>
+      </c>
+      <c r="R13">
+        <v>0.6404801312249999</v>
+      </c>
+      <c r="S13">
+        <v>0.07977196437459012</v>
+      </c>
+      <c r="T13">
+        <v>0.09817158240150967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.05095666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.15287</v>
+      </c>
+      <c r="I14">
+        <v>0.03980747524857538</v>
+      </c>
+      <c r="J14">
+        <v>0.04990821159357928</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.008576</v>
+      </c>
+      <c r="O14">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P14">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q14">
+        <v>0.0001456681244444445</v>
+      </c>
+      <c r="R14">
+        <v>0.00131101312</v>
+      </c>
+      <c r="S14">
+        <v>0.0001088580132358243</v>
+      </c>
+      <c r="T14">
+        <v>0.0002009496099330623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.05095666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.15287</v>
+      </c>
+      <c r="I15">
+        <v>0.03980747524857538</v>
+      </c>
+      <c r="J15">
+        <v>0.04990821159357928</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.098942</v>
+      </c>
+      <c r="O15">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P15">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q15">
+        <v>0.001680584837777778</v>
+      </c>
+      <c r="R15">
+        <v>0.01512526354</v>
+      </c>
+      <c r="S15">
+        <v>0.00125590363171396</v>
+      </c>
+      <c r="T15">
+        <v>0.002318371770755253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.05095666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.15287</v>
+      </c>
+      <c r="I16">
+        <v>0.03980747524857538</v>
+      </c>
+      <c r="J16">
+        <v>0.04990821159357928</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.010148</v>
+      </c>
+      <c r="O16">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P16">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q16">
+        <v>0.0001723694177777778</v>
+      </c>
+      <c r="R16">
+        <v>0.00155132476</v>
+      </c>
+      <c r="S16">
+        <v>0.0001288119307739208</v>
+      </c>
+      <c r="T16">
+        <v>0.0002377841233209791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.05095666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.15287</v>
+      </c>
+      <c r="I17">
+        <v>0.03980747524857538</v>
+      </c>
+      <c r="J17">
+        <v>0.04990821159357928</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.0061425</v>
+      </c>
+      <c r="N17">
+        <v>2.012285</v>
+      </c>
+      <c r="O17">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P17">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q17">
+        <v>0.05126966799166667</v>
+      </c>
+      <c r="R17">
+        <v>0.30761800795</v>
+      </c>
+      <c r="S17">
+        <v>0.03831390167285167</v>
+      </c>
+      <c r="T17">
+        <v>0.04715110608956999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7772105</v>
+      </c>
+      <c r="H18">
+        <v>1.554421</v>
+      </c>
+      <c r="I18">
+        <v>0.6071587834437672</v>
+      </c>
+      <c r="J18">
+        <v>0.5074793757670119</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.008576</v>
+      </c>
+      <c r="O18">
+        <v>0.002734612344944435</v>
+      </c>
+      <c r="P18">
+        <v>0.004026383705540645</v>
+      </c>
+      <c r="Q18">
+        <v>0.002221785749333334</v>
+      </c>
+      <c r="R18">
+        <v>0.013330714496</v>
+      </c>
+      <c r="S18">
+        <v>0.00166034390454677</v>
+      </c>
+      <c r="T18">
+        <v>0.002043306689486235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7772105</v>
+      </c>
+      <c r="H19">
+        <v>1.554421</v>
+      </c>
+      <c r="I19">
+        <v>0.6071587834437672</v>
+      </c>
+      <c r="J19">
+        <v>0.5074793757670119</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03298066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.098942</v>
+      </c>
+      <c r="O19">
+        <v>0.03154944200483818</v>
+      </c>
+      <c r="P19">
+        <v>0.04645271182294804</v>
+      </c>
+      <c r="Q19">
+        <v>0.02563292043033333</v>
+      </c>
+      <c r="R19">
+        <v>0.153797522582</v>
+      </c>
+      <c r="S19">
+        <v>0.01915552082598724</v>
+      </c>
+      <c r="T19">
+        <v>0.02357379319859456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7772105</v>
+      </c>
+      <c r="H20">
+        <v>1.554421</v>
+      </c>
+      <c r="I20">
+        <v>0.6071587834437672</v>
+      </c>
+      <c r="J20">
+        <v>0.5074793757670119</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.003382666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.010148</v>
+      </c>
+      <c r="O20">
+        <v>0.003235872910039194</v>
+      </c>
+      <c r="P20">
+        <v>0.004764428853058123</v>
+      </c>
+      <c r="Q20">
+        <v>0.002629044051333334</v>
+      </c>
+      <c r="R20">
+        <v>0.015774264308</v>
+      </c>
+      <c r="S20">
+        <v>0.00196468865943804</v>
+      </c>
+      <c r="T20">
+        <v>0.002417849380236276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7772105</v>
+      </c>
+      <c r="H21">
+        <v>1.554421</v>
+      </c>
+      <c r="I21">
+        <v>0.6071587834437672</v>
+      </c>
+      <c r="J21">
+        <v>0.5074793757670119</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.0061425</v>
+      </c>
+      <c r="N21">
+        <v>2.012285</v>
+      </c>
+      <c r="O21">
+        <v>0.9624800727401781</v>
+      </c>
+      <c r="P21">
+        <v>0.9447564756184532</v>
+      </c>
+      <c r="Q21">
+        <v>0.78198451549625</v>
+      </c>
+      <c r="R21">
+        <v>3.127938061985</v>
+      </c>
+      <c r="S21">
+        <v>0.5843782300537951</v>
+      </c>
+      <c r="T21">
+        <v>0.4794444264986948</v>
       </c>
     </row>
   </sheetData>
